--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2968343.241765179</v>
+        <v>2966091.162053971</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>319.5415222624743</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.5674131856731</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>114.3606976213221</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>255.0100803403017</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>148.4348925031072</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>58.28185552386362</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.6364455689692</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.89700561060589</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.81060261323961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.355549430153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>285.5970594671156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.299101484277</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.336584543865</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548399</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4638,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4753,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>216.4463512838068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028708</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>848.0708164780106</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>848.0708164780106</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W10" t="n">
-        <v>848.0708164780106</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X10" t="n">
-        <v>848.0708164780106</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>156.3070715944116</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5124,22 +5124,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5753,19 +5753,19 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5841,16 +5841,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111701</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5874149221285165</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.338487922428198e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.7441040525</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687962</v>
@@ -26430,34 +26430,34 @@
         <v>15436.64000687965</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687965</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191949</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983636</v>
+        <v>244068.2401729281</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.701980283</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084416</v>
+        <v>351949.4995830057</v>
       </c>
       <c r="K6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.439905719</v>
+        <v>569480.7019802836</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.4119702069</v>
+        <v>484425.6740447717</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057189</v>
+        <v>569480.7019802836</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057191</v>
+        <v>569480.7019802835</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.423109903035247e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.14151935820865</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.3086325560383</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.14189512788826</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.40832771011975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.23088837711134</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.81192859552067</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,19 +27825,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>167.4277998651735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.6364462020383</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.93497457133141</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.4609218293966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.656949185851152e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32002,7 +32002,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M14" t="n">
         <v>965.6463440175677</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,13 +33892,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
